--- a/biology/Médecine/Prosper_Menière/Prosper_Menière.xlsx
+++ b/biology/Médecine/Prosper_Menière/Prosper_Menière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prosper_Meni%C3%A8re</t>
+          <t>Prosper_Menière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prosper Menière[a], né le 28 prairial an VII (16 juin 1799) à Angers et mort le 7 février 1862 à Paris 5e, est un médecin français.
-Il est célèbre pour sa description princeps de la maladie de Menière (ou syndrome de Ménière), trouble associant des vertiges, une surdité et des acouphènes[2].
+Il est célèbre pour sa description princeps de la maladie de Menière (ou syndrome de Ménière), trouble associant des vertiges, une surdité et des acouphènes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prosper_Meni%C3%A8re</t>
+          <t>Prosper_Menière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Menière a poursuivi ses études entamées dans sa ville natale, à la faculté de médecine de Paris. Reçu au concours de l'internat en 1824, il est nommé à l'hôpital Hôtel-Dieu et soutient sa thèse de doctorat au sujet de Recherches sur la constitution médicale du troisième trimestre de 1826[3] en 1828 avant de passer l'agrégation de médecine en 1832. Il se distingue par son organisation de la lutte contre la meurtrière épidémie de choléra de 1832, et reçoit la Légion d'honneur pour services rendus.
-De février à juin 1833, il est chargé par le gouvernement de Louis-Philippe de suivre la duchesse de Berry, dont la santé est fragile, durant sa captivité à la citadelle de Blaye. Il assumera cette mission jusqu'à la délivrance de la princesse et son arrivée à Palerme. Il a laissé un journal de cette captivité[4], publié par son fils en deux volumes in-8º, en 1882.
-En 1838, il devient médecin titulaire de l'Institut des sourds-muets de Paris[1].
-Il a publié de nombreux articles au sujet des orchidées et notamment de leur pollinisation[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Menière a poursuivi ses études entamées dans sa ville natale, à la faculté de médecine de Paris. Reçu au concours de l'internat en 1824, il est nommé à l'hôpital Hôtel-Dieu et soutient sa thèse de doctorat au sujet de Recherches sur la constitution médicale du troisième trimestre de 1826 en 1828 avant de passer l'agrégation de médecine en 1832. Il se distingue par son organisation de la lutte contre la meurtrière épidémie de choléra de 1832, et reçoit la Légion d'honneur pour services rendus.
+De février à juin 1833, il est chargé par le gouvernement de Louis-Philippe de suivre la duchesse de Berry, dont la santé est fragile, durant sa captivité à la citadelle de Blaye. Il assumera cette mission jusqu'à la délivrance de la princesse et son arrivée à Palerme. Il a laissé un journal de cette captivité, publié par son fils en deux volumes in-8º, en 1882.
+En 1838, il devient médecin titulaire de l'Institut des sourds-muets de Paris.
+Il a publié de nombreux articles au sujet des orchidées et notamment de leur pollinisation.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prosper_Meni%C3%A8re</t>
+          <t>Prosper_Menière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
           <t>La maladie de Menière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son mémoire, resté célèbre, présenté à l'Académie de médecine le 8 janvier 1861, Prosper Menière était le premier à rapporter à l'oreille interne la maladie associant des vertiges paroxystiques et une surdité[6]. Une semaine plus tard, Armand Trousseau s'appuyait sur la description de Menière pour démanteler la congestion cérébrale. Il confirmait ainsi le rôle de Prosper Menière dans l'identification de cette maladie de l'oreille interne. En 1938, Hallpike, Cairns[7],[8] et Yamakawa[9] en montreront la physiopathologie, et rattacheront cette dernière à l’histologie.
-De son côté, Émile Ménière continua les recherches entreprises par son père et notamment la description de cette maladie. Son travail eu pour conséquence la dénomination actuelle de ce syndrome[10],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son mémoire, resté célèbre, présenté à l'Académie de médecine le 8 janvier 1861, Prosper Menière était le premier à rapporter à l'oreille interne la maladie associant des vertiges paroxystiques et une surdité. Une semaine plus tard, Armand Trousseau s'appuyait sur la description de Menière pour démanteler la congestion cérébrale. Il confirmait ainsi le rôle de Prosper Menière dans l'identification de cette maladie de l'oreille interne. En 1938, Hallpike, Cairns, et Yamakawa en montreront la physiopathologie, et rattacheront cette dernière à l’histologie.
+De son côté, Émile Ménière continua les recherches entreprises par son père et notamment la description de cette maladie. Son travail eu pour conséquence la dénomination actuelle de ce syndrome,.
 Malgré un travail très prenant, il restait ouvert à la culture de son temps, comptant parmi ses amis Victor Hugo ou Honoré de Balzac.
 Il est mort d'une pneumonie, à son domicile parisien du 254 rue Saint-Jacques. Il était l'époux de Pauline Becquerel (1819-1841), fille du physicien Antoine Becquerel et tante d'Henri Becquerel, le prix Nobel de physique en 1903.
-Le couple a eu un fils, Emile Ménière. Celui-ci, né à Paris le 27 novembre 1837, y est meurt le 30 septembre 1905. Médecin otologiste comme son père, Émile Ménière devient médecin de l'Institution Nationale des sourds-muets à Paris en 1890[12],[13],[10],[14]. Il a poursuivi notamment les travaux médicaux de son père, mais ne doit pas être confondu avec celui-ci, le véritable découvreur de la maladie de Menière[15],[16],[17],[11].
+Le couple a eu un fils, Emile Ménière. Celui-ci, né à Paris le 27 novembre 1837, y est meurt le 30 septembre 1905. Médecin otologiste comme son père, Émile Ménière devient médecin de l'Institution Nationale des sourds-muets à Paris en 1890. Il a poursuivi notamment les travaux médicaux de son père, mais ne doit pas être confondu avec celui-ci, le véritable découvreur de la maladie de Menière.
 Émile Ménière laisse une descendance.
 </t>
         </is>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prosper_Meni%C3%A8re</t>
+          <t>Prosper_Menière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Sur une forme de surdité grave dépendant d’une lésion de l’oreille interne », Bulletin de l’Académie nationale de médecine, Paris, J.-B. Baillière, vol. 25, no 26,‎ 1860, p. 242 (lire en ligne sur Gallica, consulté le 10 août 2023).
 La Captivité de Madame la duchesse de Berry à Blaye, 1833 : journal du docteur P. Menière, médecin envoyé par le gouvernement auprès de la princesse, publié par son fils, le docteur E. Menière, Paris, Calmann-Lévy, 1882, 2 vol. 23 cm (OCLC 612883981), « t. 1 », « t. 2 ».
